--- a/ToeicWeb/wwwroot/adminn/upload/Book1.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\TestExcel\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0153B989-0F7F-4A1A-A515-BF6B22D085E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593AF2F-EEB2-4F59-A1ED-856188622132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{23679E17-AEA1-487A-B298-8EF6CEC8F101}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DE8BA6B-961E-4448-91FA-1A5D71FEB673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,32 +25,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option4</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>correctanswer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+  <si>
+    <t>Thu_tu_cau</t>
+  </si>
+  <si>
+    <t>Cau_hoi</t>
+  </si>
+  <si>
+    <t>Dap_an_1</t>
+  </si>
+  <si>
+    <t>Dap_an_2</t>
+  </si>
+  <si>
+    <t>Dap_an_3</t>
+  </si>
+  <si>
+    <t>Dap_an_4</t>
+  </si>
+  <si>
+    <t>Dap_an_dung</t>
+  </si>
+  <si>
+    <t>Giai_thich</t>
+  </si>
+  <si>
+    <t>Bai_doc</t>
   </si>
   <si>
     <t>Former Sendai Company CEO Ken Nakata spoke about -- career experiences.</t>
   </si>
   <si>
+    <t>Passengers who will be taking a -- domestic flight should go to Terminal A.</t>
+  </si>
+  <si>
+    <t>Fresh and -- apple-cider donuts are available at Oakcrest Orchard’s retail shop for £6 per dozen.</t>
+  </si>
+  <si>
+    <t>Zahn Flooring has the widest selection of -- in the United Kingdom.</t>
+  </si>
+  <si>
+    <t>One responsibility of the IT department is to ensure that the company is using -- software.</t>
+  </si>
+  <si>
     <t>he</t>
   </si>
   <si>
@@ -66,10 +84,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>explain</t>
-  </si>
-  <si>
-    <t>Passengers who will be taking a -- domestic flight should go to Terminal A.</t>
+    <t>B ĐÚNG</t>
   </si>
   <si>
     <t>connectivity</t>
@@ -84,10 +99,10 @@
     <t>connecting</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Fresh and -- apple-cider donuts are available at Oakcrest Orchard’s retail shop for £6 per dozen.</t>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t>D ĐÚNG</t>
   </si>
   <si>
     <t>eaten</t>
@@ -105,7 +120,7 @@
     <t>C</t>
   </si>
   <si>
-    <t>Zahn Flooring has the widest selection of -- in the United Kingdom.</t>
+    <t>C ĐÚNG</t>
   </si>
   <si>
     <t>paints</t>
@@ -120,9 +135,6 @@
     <t>curtains</t>
   </si>
   <si>
-    <t>One responsibility of the IT department is to ensure that the company is using -- software.</t>
-  </si>
-  <si>
     <t>update</t>
   </si>
   <si>
@@ -132,7 +144,10 @@
     <t>updates</t>
   </si>
   <si>
-    <t>updated</t>
+    <t> updated</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
   </si>
 </sst>
 </file>
@@ -148,10 +163,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -491,173 +506,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EAFBE3-61FE-41E7-BA2F-DBD23EE493C7}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D5C6B3-AA94-4318-BF3F-CD79BBFFFC4F}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="71.296875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="10.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.8984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>103</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ToeicWeb/wwwroot/adminn/upload/Book1.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A593AF2F-EEB2-4F59-A1ED-856188622132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76E22CE-3B92-4518-8993-DEAABF03F5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DE8BA6B-961E-4448-91FA-1A5D71FEB673}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Thu_tu_cau</t>
   </si>
@@ -81,9 +81,6 @@
     <t>himself</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>B ĐÚNG</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>connecting</t>
   </si>
   <si>
-    <t xml:space="preserve">D </t>
-  </si>
-  <si>
     <t>D ĐÚNG</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>free</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>C ĐÚNG</t>
   </si>
   <si>
@@ -147,14 +138,21 @@
     <t> updated</t>
   </si>
   <si>
-    <t>Nội dung</t>
+    <t>Cecil Munrow, founder and president of Munrow's, Liverpool's largest retail clothier, announced that he _____(131) £4,000 to the city's new community center. The funds derive from the sale of tickets to a party held last night at his company's _____(132). Mr. Munrow will present a check to the center tomorrow at its opening ceremony.
+_____(133) the past twenty years, Mr. Munrow has organized several fundraising events for charitable institutions and community services. _____(134).</t>
+  </si>
+  <si>
+    <t>On February 3 WXO Radio will celebrate its fiftieth anniversary. That's half a century of stimulating _____(135). Over the years, we _____(136) our listeners breaking news, thought-provoking stories, and popular music from around the world. Now we invite you to celebrate with us during an open house from 5:00 P.M. to 6.30 P.M. on February 3 at our Eighth Street studio. Take a tour and see some of the behind-the-scenes magic. Watch a demonstration of our digital audio equipment. _____(137). The open house is free, but registration is required. We hope you can join us for this _____(138) occasion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connecting </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +162,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -190,9 +196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D5C6B3-AA94-4318-BF3F-CD79BBFFFC4F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -523,7 +533,7 @@
     <col min="6" max="6" width="9.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.59765625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
@@ -556,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -576,16 +586,16 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -593,26 +603,24 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -622,25 +630,22 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,25 +656,22 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,25 +682,103 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ToeicWeb/wwwroot/adminn/upload/Book1.xlsx
+++ b/ToeicWeb/wwwroot/adminn/upload/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DO AN CNNT 1\WEBTOEIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76E22CE-3B92-4518-8993-DEAABF03F5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF0CDE-40FD-4D1F-A16D-31125DB0E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DE8BA6B-961E-4448-91FA-1A5D71FEB673}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Thu_tu_cau</t>
   </si>
@@ -138,14 +138,18 @@
     <t> updated</t>
   </si>
   <si>
-    <t>Cecil Munrow, founder and president of Munrow's, Liverpool's largest retail clothier, announced that he _____(131) £4,000 to the city's new community center. The funds derive from the sale of tickets to a party held last night at his company's _____(132). Mr. Munrow will present a check to the center tomorrow at its opening ceremony.
-_____(133) the past twenty years, Mr. Munrow has organized several fundraising events for charitable institutions and community services. _____(134).</t>
-  </si>
-  <si>
     <t>On February 3 WXO Radio will celebrate its fiftieth anniversary. That's half a century of stimulating _____(135). Over the years, we _____(136) our listeners breaking news, thought-provoking stories, and popular music from around the world. Now we invite you to celebrate with us during an open house from 5:00 P.M. to 6.30 P.M. on February 3 at our Eighth Street studio. Take a tour and see some of the behind-the-scenes magic. Watch a demonstration of our digital audio equipment. _____(137). The open house is free, but registration is required. We hope you can join us for this _____(138) occasion.</t>
   </si>
   <si>
     <t xml:space="preserve">connecting </t>
+  </si>
+  <si>
+    <t>_____(133) the past twenty years, Mr. Munrow has organized several fundraising events for charitable institutions and community services. _____(134).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecil Munrow, founder and president of Munrow's, Liverpool's largest retail clothier, announced that he _____(131) £4,000 to the city's new community center. The funds derive from the sale of tickets to a party held last night at his company's _____(132). Mr. Munrow will present a check to the center tomorrow at its opening ceremony.
+Cecil Munrow, founder and president of Munrow's, Liverpool's largest retail clothier, announced that he _____(131) £4,000 to the city's new community center. The funds derive from the sale of tickets to a party held last night at his company's _____(132). Mr. Munrow will present a check to the center tomorrow at its opening ceremony.
+                                  </t>
   </si>
 </sst>
 </file>
@@ -519,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D5C6B3-AA94-4318-BF3F-CD79BBFFFC4F}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -532,7 +536,7 @@
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.19921875" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.59765625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -566,7 +570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -592,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -615,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -673,6 +677,9 @@
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -700,7 +707,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
